--- a/TEST CASES.xlsx
+++ b/TEST CASES.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bhatt\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\freelance\pytest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{935198FE-7113-49C3-B2A9-9948EAF8FE33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54CAB5BE-4FAD-468A-8C84-4C416B0FE8EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="43">
   <si>
     <t>COMMENTS</t>
   </si>
@@ -137,6 +137,18 @@
   </si>
   <si>
     <t>user was registered when calling this api</t>
+  </si>
+  <si>
+    <t>create user(METHOD=POST REQUEST)</t>
+  </si>
+  <si>
+    <t>url ="https://reqres.in/api/users"  and &lt;&lt;job&gt;&gt; and  &lt;&lt;name&gt;&gt;</t>
+  </si>
+  <si>
+    <t>when calling this api ,user should be job created</t>
+  </si>
+  <si>
+    <t>when calling this api ,user was created</t>
   </si>
 </sst>
 </file>
@@ -367,6 +379,24 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -407,24 +437,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -770,7 +782,7 @@
   <dimension ref="B1:I30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P12" activeCellId="2" sqref="H10 H11 P12"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -789,72 +801,72 @@
   <sheetData>
     <row r="1" spans="2:9" ht="3.6" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="20"/>
-      <c r="D2" s="7" t="s">
+      <c r="C2" s="26"/>
+      <c r="D2" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="8" t="s">
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="9"/>
-      <c r="I2" s="10"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="16"/>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="20"/>
-      <c r="D3" s="7" t="s">
+      <c r="C3" s="26"/>
+      <c r="D3" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="19"/>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B4" s="20" t="s">
+      <c r="B4" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="20"/>
-      <c r="D4" s="7" t="s">
+      <c r="C4" s="26"/>
+      <c r="D4" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="19"/>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B5" s="20" t="s">
+      <c r="B5" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="20"/>
-      <c r="D5" s="21">
+      <c r="C5" s="26"/>
+      <c r="D5" s="12">
         <v>44807</v>
       </c>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="16"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="22"/>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B6" s="17"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="18"/>
-      <c r="I6" s="19"/>
+      <c r="B6" s="23"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="24"/>
+      <c r="H6" s="24"/>
+      <c r="I6" s="25"/>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B7" s="5" t="s">
@@ -864,21 +876,21 @@
       <c r="D7" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="17"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="18"/>
-      <c r="H7" s="18"/>
-      <c r="I7" s="19"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="24"/>
+      <c r="H7" s="24"/>
+      <c r="I7" s="25"/>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B8" s="17"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="18"/>
-      <c r="H8" s="18"/>
-      <c r="I8" s="19"/>
+      <c r="B8" s="23"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="24"/>
+      <c r="G8" s="24"/>
+      <c r="H8" s="24"/>
+      <c r="I8" s="25"/>
     </row>
     <row r="9" spans="2:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B9" s="4" t="s">
@@ -907,282 +919,292 @@
       </c>
     </row>
     <row r="10" spans="2:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="B10" s="22">
+      <c r="B10" s="7">
         <v>1</v>
       </c>
-      <c r="C10" s="22" t="s">
+      <c r="C10" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="23" t="s">
+      <c r="D10" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="E10" s="23" t="s">
+      <c r="E10" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="F10" s="23" t="s">
+      <c r="F10" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="G10" s="23" t="s">
+      <c r="G10" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="H10" s="26" t="s">
+      <c r="H10" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="I10" s="22"/>
+      <c r="I10" s="7"/>
     </row>
     <row r="11" spans="2:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="B11" s="22">
+      <c r="B11" s="7">
         <v>2</v>
       </c>
-      <c r="C11" s="22" t="s">
+      <c r="C11" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="23" t="s">
+      <c r="D11" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="E11" s="23" t="s">
+      <c r="E11" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="F11" s="23" t="s">
+      <c r="F11" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="G11" s="23" t="s">
+      <c r="G11" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="H11" s="26" t="s">
+      <c r="H11" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="I11" s="22"/>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B12" s="22">
+      <c r="I11" s="7"/>
+    </row>
+    <row r="12" spans="2:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="B12" s="7">
         <v>3</v>
       </c>
-      <c r="C12" s="22" t="s">
+      <c r="C12" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="22"/>
-      <c r="E12" s="22"/>
-      <c r="F12" s="22"/>
-      <c r="G12" s="22"/>
-      <c r="H12" s="22"/>
-      <c r="I12" s="22"/>
+      <c r="D12" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="H12" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="I12" s="7"/>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B13" s="22">
+      <c r="B13" s="7">
         <v>4</v>
       </c>
-      <c r="C13" s="22" t="s">
+      <c r="C13" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="22"/>
-      <c r="E13" s="22"/>
-      <c r="F13" s="22"/>
-      <c r="G13" s="22"/>
-      <c r="H13" s="22"/>
-      <c r="I13" s="22"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B14" s="22">
+      <c r="B14" s="7">
         <v>5</v>
       </c>
-      <c r="C14" s="22" t="s">
+      <c r="C14" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D14" s="22"/>
-      <c r="E14" s="22"/>
-      <c r="F14" s="22"/>
-      <c r="G14" s="22"/>
-      <c r="H14" s="22"/>
-      <c r="I14" s="22"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B15" s="22">
+      <c r="B15" s="7">
         <v>6</v>
       </c>
-      <c r="C15" s="22" t="s">
+      <c r="C15" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D15" s="22"/>
-      <c r="E15" s="22"/>
-      <c r="F15" s="22"/>
-      <c r="G15" s="22"/>
-      <c r="H15" s="22"/>
-      <c r="I15" s="22"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B16" s="22">
+      <c r="B16" s="7">
         <v>7</v>
       </c>
-      <c r="C16" s="22" t="s">
+      <c r="C16" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D16" s="22"/>
-      <c r="E16" s="22"/>
-      <c r="F16" s="22"/>
-      <c r="G16" s="22"/>
-      <c r="H16" s="22"/>
-      <c r="I16" s="22"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B17" s="22">
+      <c r="B17" s="7">
         <v>8</v>
       </c>
-      <c r="C17" s="22" t="s">
+      <c r="C17" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D17" s="22"/>
-      <c r="E17" s="22"/>
-      <c r="F17" s="22"/>
-      <c r="G17" s="22"/>
-      <c r="H17" s="22"/>
-      <c r="I17" s="22"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B18" s="22">
+      <c r="B18" s="7">
         <v>9</v>
       </c>
-      <c r="C18" s="22" t="s">
+      <c r="C18" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D18" s="22"/>
-      <c r="E18" s="22"/>
-      <c r="F18" s="22"/>
-      <c r="G18" s="22"/>
-      <c r="H18" s="22"/>
-      <c r="I18" s="22"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B19" s="22">
+      <c r="B19" s="7">
         <v>10</v>
       </c>
-      <c r="C19" s="22" t="s">
+      <c r="C19" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D19" s="22"/>
-      <c r="E19" s="22"/>
-      <c r="F19" s="22"/>
-      <c r="G19" s="22"/>
-      <c r="H19" s="22"/>
-      <c r="I19" s="22"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B20" s="22">
+      <c r="B20" s="7">
         <v>11</v>
       </c>
-      <c r="C20" s="22" t="s">
+      <c r="C20" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D20" s="22"/>
-      <c r="E20" s="22"/>
-      <c r="F20" s="22"/>
-      <c r="G20" s="22"/>
-      <c r="H20" s="22"/>
-      <c r="I20" s="22"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B21" s="22">
+      <c r="B21" s="7">
         <v>12</v>
       </c>
-      <c r="C21" s="22" t="s">
+      <c r="C21" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D21" s="22"/>
-      <c r="E21" s="22"/>
-      <c r="F21" s="22"/>
-      <c r="G21" s="22"/>
-      <c r="H21" s="22"/>
-      <c r="I21" s="22"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B22" s="24"/>
-      <c r="C22" s="24"/>
-      <c r="D22" s="24"/>
-      <c r="E22" s="24"/>
-      <c r="F22" s="24"/>
-      <c r="G22" s="24"/>
-      <c r="H22" s="24"/>
-      <c r="I22" s="24"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="9"/>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B23" s="24"/>
-      <c r="C23" s="24"/>
-      <c r="D23" s="24"/>
-      <c r="E23" s="24"/>
-      <c r="F23" s="24"/>
-      <c r="G23" s="25"/>
-      <c r="H23" s="24"/>
-      <c r="I23" s="24"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="9"/>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B24" s="24"/>
-      <c r="C24" s="24"/>
-      <c r="D24" s="24"/>
-      <c r="E24" s="24"/>
-      <c r="F24" s="24"/>
-      <c r="G24" s="24"/>
-      <c r="H24" s="24"/>
-      <c r="I24" s="24"/>
+      <c r="B24" s="9"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="9"/>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B25" s="24"/>
-      <c r="C25" s="24"/>
-      <c r="D25" s="24"/>
-      <c r="E25" s="24"/>
-      <c r="F25" s="24"/>
-      <c r="G25" s="24"/>
-      <c r="H25" s="24"/>
-      <c r="I25" s="24"/>
+      <c r="B25" s="9"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="9"/>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B26" s="24"/>
-      <c r="C26" s="24"/>
-      <c r="D26" s="24"/>
-      <c r="E26" s="24"/>
-      <c r="F26" s="24"/>
-      <c r="G26" s="24"/>
-      <c r="H26" s="24"/>
-      <c r="I26" s="24"/>
+      <c r="B26" s="9"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="9"/>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B27" s="24"/>
-      <c r="C27" s="24"/>
-      <c r="D27" s="24"/>
-      <c r="E27" s="24"/>
-      <c r="F27" s="24"/>
-      <c r="G27" s="24"/>
-      <c r="H27" s="24"/>
-      <c r="I27" s="24"/>
+      <c r="B27" s="9"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="9"/>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B28" s="24"/>
-      <c r="C28" s="24"/>
-      <c r="D28" s="24"/>
-      <c r="E28" s="24"/>
-      <c r="F28" s="24"/>
-      <c r="G28" s="24"/>
-      <c r="H28" s="24"/>
-      <c r="I28" s="24"/>
+      <c r="B28" s="9"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="9"/>
+      <c r="I28" s="9"/>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B29" s="24"/>
-      <c r="C29" s="24"/>
-      <c r="D29" s="24"/>
-      <c r="E29" s="24"/>
-      <c r="F29" s="24"/>
-      <c r="G29" s="24"/>
-      <c r="H29" s="24"/>
-      <c r="I29" s="24"/>
+      <c r="B29" s="9"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="9"/>
+      <c r="I29" s="9"/>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B30" s="24"/>
-      <c r="C30" s="24"/>
-      <c r="D30" s="24"/>
-      <c r="E30" s="24"/>
-      <c r="F30" s="24"/>
-      <c r="G30" s="24"/>
-      <c r="H30" s="24"/>
-      <c r="I30" s="24"/>
+      <c r="B30" s="9"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="9"/>
+      <c r="I30" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="12">
